--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/邮寄信息.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/邮寄信息.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve">资料回传已审核</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-04</t>
   </si>
   <si>
     <t xml:space="preserve">高云锦</t>
@@ -281,32 +284,32 @@
       <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="K2">
-        <v>43194.6993934538</v>
+      <c r="K2" t="s">
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
         <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -314,10 +317,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -327,43 +330,43 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="K3">
-        <v>43194.707121155</v>
+      <c r="K3" t="s">
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
